--- a/TB1_SandersonData/TB1_Rewards_PeaksAnalysis.xlsx
+++ b/TB1_SandersonData/TB1_Rewards_PeaksAnalysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpanagi\Documents\GitHub\Marios-temp\TB1_SandersonData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marios\Documents\GitHub\Marios-temp\TB1_SandersonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF9BA610-C2B5-4E2B-B471-E213A3BAD4D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4A5C2E-0DAF-40D9-B92F-CF718CA61A1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10965" xr2:uid="{DEE8CD78-AAA2-4D8E-A5E9-A9CBB5D1C7FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10970" xr2:uid="{DEE8CD78-AAA2-4D8E-A5E9-A9CBB5D1C7FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,21 +549,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -659,7 +659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -723,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -755,7 +755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -787,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -851,7 +851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -883,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -915,7 +915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -947,7 +947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -979,7 +979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>2</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>2</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>2</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>2</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>2</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>2</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>2</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>2</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>2</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>2</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>2</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>2</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>2</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>2</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>2</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>2</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>2</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>2</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>2</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>2</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>2</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>2</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>2</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>2</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>2</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>2</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>2</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>2</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>2</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>2</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>2</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>2</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>2</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>2</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>2</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>2</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>2</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>2</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>2</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>2</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>2</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>2</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>2</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>2</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>2</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>2</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>2</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>2</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>2</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>2</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>2</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>2</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>2</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>2</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>2</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>2</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>2</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>2</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>2</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>2</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>2</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>2</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>2</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>2</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>2</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>2</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>2</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>2</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>2</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>2</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>2</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>2</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>2</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>2</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>2</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>2</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>2</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>2</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>2</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>2</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>2</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>2</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>2</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>2</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>2</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>2</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>2</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>2</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>2</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>2</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>2</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>2</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>2</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>2</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>2</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>2</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>2</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>2</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>2</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>2</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>2</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>2</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>2</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>2</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>2</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>2</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>2</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>2</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>2</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>2</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>2</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>2</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>2</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>2</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>2</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>2</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>2</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>2</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>2</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>2</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>2</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>2</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>2</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>2</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>2</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>2</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>2</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>2</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>2</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>2</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>2</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>2</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>2</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>2</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>2</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>2</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>2</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>2</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>2</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>2</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>2</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>2</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>2</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>2</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>2</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>2</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>2</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>2</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>2</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>2</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>2</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>2</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>2</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>2</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>2</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>2</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>2</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>2</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>2</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>2</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>2</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>2</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>2</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>2</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>2</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>2</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>2</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>2</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>2</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>2</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>2</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>2</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>2</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>2</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>2</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>2</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>2</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>2</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>2</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>2</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>2</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>2</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>2</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>2</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>2</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>2</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>2</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>2</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>2</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>2</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>2</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>2</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>2</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>2</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>2</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>2</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>2</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>2</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>2</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>2</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>2</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>2</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>2</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>2</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>2</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>2</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>2</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>2</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>2</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>2</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>2</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>2</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>2</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>2</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>2</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>2</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>2</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>2</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>2</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>2</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>2</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>2</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>2</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>2</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>2</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>2</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>2</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>2</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>2</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>2</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>2</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>2</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>2</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>2</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>2</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>2</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>2</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>2</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>2</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>2</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>2</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>2</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>2</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>2</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>2</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>2</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>2</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>2</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>2</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>2</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>2</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>2</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>2</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>2</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>2</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>2</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>2</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>2</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>2</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>2</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>2</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>2</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>2</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>2</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>2</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>2</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>2</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>2</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>2</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>2</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>2</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>2</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>2</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>2</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>2</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>2</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>2</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>2</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>2</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>2</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>2</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>2</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>2</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>2</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>2</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>2</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>2</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>2</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>2</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>2</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>2</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>2</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>2</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>2</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>2</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>2</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>2</v>
       </c>
@@ -18686,7 +18686,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18698,7 +18698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
